--- a/EjemploTabla.xlsx
+++ b/EjemploTabla.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -65,9 +65,6 @@
     <t>S4</t>
   </si>
   <si>
-    <t>S9</t>
-  </si>
-  <si>
     <t>S7</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>accep</t>
+  </si>
+  <si>
+    <t>S9/R2</t>
+  </si>
+  <si>
+    <t>R2/S9</t>
+  </si>
+  <si>
+    <t>R1/S9</t>
   </si>
 </sst>
 </file>
@@ -467,13 +473,15 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -538,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -547,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -562,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
@@ -580,28 +588,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>10</v>
@@ -631,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>10</v>
@@ -649,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -670,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -727,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>10</v>
@@ -745,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -772,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -783,13 +791,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -804,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="1"/>
     </row>
@@ -822,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -837,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -879,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -894,13 +902,13 @@
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>10</v>
@@ -930,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>10</v>
